--- a/src/test/resources/testdata/seller10.xlsx
+++ b/src/test/resources/testdata/seller10.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="210">
   <si>
     <t>Run Time    :</t>
   </si>
@@ -625,12 +625,37 @@
   </si>
   <si>
     <t>A3H8GUV022P13</t>
+  </si>
+  <si>
+    <t>30/10--0:59</t>
+  </si>
+  <si>
+    <t>30/10--8:1</t>
+  </si>
+  <si>
+    <t>30/10--15:29</t>
+  </si>
+  <si>
+    <t>31/10--11:6</t>
+  </si>
+  <si>
+    <t>31/10--21:7</t>
+  </si>
+  <si>
+    <t>1/11--21:6</t>
+  </si>
+  <si>
+    <t>2/11--18:23</t>
+  </si>
+  <si>
+    <t>3/11--8:13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -977,22 +1002,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="34.5703125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.7109375"/>
+    <col min="3" max="17" customWidth="true" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
+      <c r="B1" s="2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,6 +1028,30 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>209</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1106,6 +1156,30 @@
       <c r="B15" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C15" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1114,6 +1188,30 @@
       <c r="B16" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C16" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1122,6 +1220,30 @@
       <c r="B17" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C17" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1234,6 +1356,30 @@
       <c r="B31" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C31" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G31" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H31" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I31" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="J31" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1378,6 +1524,30 @@
       <c r="B49" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C49" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E49" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F49" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G49" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H49" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I49" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="J49" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -1442,6 +1612,30 @@
       <c r="B57" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C57" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D57" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E57" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F57" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G57" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H57" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I57" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="J57" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -1482,6 +1676,30 @@
       <c r="B62" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C62" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D62" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E62" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F62" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G62" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H62" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I62" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="J62" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -1490,6 +1708,30 @@
       <c r="B63" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C63" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D63" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E63" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F63" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G63" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H63" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I63" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="J63" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -1498,6 +1740,30 @@
       <c r="B64" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="J64" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -1554,6 +1820,30 @@
       <c r="B71" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C71" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D71" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E71" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F71" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G71" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H71" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I71" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="J71" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
@@ -1578,6 +1868,30 @@
       <c r="B74" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C74" t="n" s="0">
+        <v>37.85</v>
+      </c>
+      <c r="D74" t="n" s="0">
+        <v>37.85</v>
+      </c>
+      <c r="E74" t="n" s="0">
+        <v>37.85</v>
+      </c>
+      <c r="F74" t="n" s="0">
+        <v>37.85</v>
+      </c>
+      <c r="G74" t="n" s="0">
+        <v>37.85</v>
+      </c>
+      <c r="H74" t="n" s="0">
+        <v>37.85</v>
+      </c>
+      <c r="I74" t="n" s="0">
+        <v>37.85</v>
+      </c>
+      <c r="J74" t="n" s="0">
+        <v>37.85</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -1602,6 +1916,30 @@
       <c r="B77" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C77" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D77" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E77" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F77" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G77" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H77" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I77" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="J77" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -1634,6 +1972,30 @@
       <c r="B81" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="J81" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -1642,6 +2004,30 @@
       <c r="B82" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C82" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D82" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E82" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F82" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G82" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H82" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I82" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="J82" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -1658,6 +2044,30 @@
       <c r="B84" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C84" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E84" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F84" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G84" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H84" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I84" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="J84" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -1730,6 +2140,30 @@
       <c r="B93" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C93" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D93" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E93" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F93" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G93" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H93" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I93" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="J93" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -1738,6 +2172,30 @@
       <c r="B94" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="J94" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -1746,6 +2204,30 @@
       <c r="B95" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C95" t="n" s="0">
+        <v>24.5</v>
+      </c>
+      <c r="D95" t="n" s="0">
+        <v>24.5</v>
+      </c>
+      <c r="E95" t="n" s="0">
+        <v>24.5</v>
+      </c>
+      <c r="F95" t="n" s="0">
+        <v>24.5</v>
+      </c>
+      <c r="G95" t="n" s="0">
+        <v>24.5</v>
+      </c>
+      <c r="H95" t="n" s="0">
+        <v>24.5</v>
+      </c>
+      <c r="I95" t="n" s="0">
+        <v>24.5</v>
+      </c>
+      <c r="J95" t="n" s="0">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
@@ -1762,6 +2244,30 @@
       <c r="B97" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C97" t="n" s="0">
+        <v>24.31</v>
+      </c>
+      <c r="D97" t="n" s="0">
+        <v>24.31</v>
+      </c>
+      <c r="E97" t="n" s="0">
+        <v>24.31</v>
+      </c>
+      <c r="F97" t="n" s="0">
+        <v>24.31</v>
+      </c>
+      <c r="G97" t="n" s="0">
+        <v>24.31</v>
+      </c>
+      <c r="H97" t="n" s="0">
+        <v>24.31</v>
+      </c>
+      <c r="I97" t="n" s="0">
+        <v>24.31</v>
+      </c>
+      <c r="J97" t="n" s="0">
+        <v>24.31</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -1778,6 +2284,30 @@
       <c r="B99" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C99" t="n" s="0">
+        <v>25.6</v>
+      </c>
+      <c r="D99" t="n" s="0">
+        <v>25.6</v>
+      </c>
+      <c r="E99" t="n" s="0">
+        <v>25.6</v>
+      </c>
+      <c r="F99" t="n" s="0">
+        <v>25.6</v>
+      </c>
+      <c r="G99" t="n" s="0">
+        <v>25.6</v>
+      </c>
+      <c r="H99" t="n" s="0">
+        <v>25.6</v>
+      </c>
+      <c r="I99" t="n" s="0">
+        <v>25.6</v>
+      </c>
+      <c r="J99" t="n" s="0">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -1794,6 +2324,30 @@
       <c r="B101" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C101" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D101" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E101" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F101" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G101" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H101" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I101" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="J101" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
@@ -1826,6 +2380,30 @@
       <c r="B105" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C105" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D105" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="E105" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F105" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="G105" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="H105" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I105" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J105" t="n" s="0">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
@@ -1850,6 +2428,30 @@
       <c r="B108" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="J108" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
@@ -1866,6 +2468,30 @@
       <c r="B110" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="J110" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
@@ -1874,6 +2500,30 @@
       <c r="B111" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C111" t="n" s="0">
+        <v>35.99</v>
+      </c>
+      <c r="D111" t="n" s="0">
+        <v>35.99</v>
+      </c>
+      <c r="E111" t="n" s="0">
+        <v>35.99</v>
+      </c>
+      <c r="F111" t="n" s="0">
+        <v>35.99</v>
+      </c>
+      <c r="G111" t="n" s="0">
+        <v>35.99</v>
+      </c>
+      <c r="H111" t="n" s="0">
+        <v>35.99</v>
+      </c>
+      <c r="I111" t="n" s="0">
+        <v>35.99</v>
+      </c>
+      <c r="J111" t="n" s="0">
+        <v>35.99</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
@@ -1882,6 +2532,30 @@
       <c r="B112" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C112" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="D112" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="E112" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="F112" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="G112" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="H112" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="I112" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="J112" t="n" s="0">
+        <v>37.0</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
@@ -1938,6 +2612,30 @@
       <c r="B119" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C119" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D119" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E119" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F119" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G119" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H119" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I119" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="J119" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
@@ -1954,6 +2652,30 @@
       <c r="B121" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="J121" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
@@ -1970,6 +2692,30 @@
       <c r="B123" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C123" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D123" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E123" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F123" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G123" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H123" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I123" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="J123" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
@@ -2026,6 +2772,30 @@
       <c r="B130" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="J130" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
@@ -2194,6 +2964,30 @@
       <c r="B151" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="J151" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
@@ -2349,7 +3143,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>201</v>
@@ -2357,23 +3151,23 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>172</v>
+      <c r="A173" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
+      <c r="A174" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>201</v>
@@ -2381,7 +3175,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>201</v>
@@ -2389,7 +3183,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>201</v>
@@ -2397,7 +3191,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>201</v>
@@ -2405,7 +3199,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>201</v>
@@ -2413,7 +3207,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>201</v>
@@ -2421,7 +3215,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>201</v>
@@ -2429,7 +3223,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>201</v>
@@ -2437,15 +3231,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>182</v>
+      <c r="A183" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>201</v>
@@ -2453,23 +3247,23 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>184</v>
+      <c r="A185" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>185</v>
+      <c r="A186" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>201</v>
@@ -2477,15 +3271,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+      <c r="A188" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>201</v>
@@ -2493,7 +3287,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>201</v>
@@ -2501,7 +3295,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>201</v>
@@ -2509,7 +3303,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>201</v>
@@ -2517,23 +3311,23 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>192</v>
+      <c r="A193" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>193</v>
+      <c r="A194" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>201</v>
@@ -2541,7 +3335,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>201</v>
@@ -2549,7 +3343,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>201</v>
@@ -2557,23 +3351,23 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>197</v>
+      <c r="A198" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>198</v>
+      <c r="A199" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>201</v>
@@ -2581,17 +3375,9 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="7" t="s">
         <v>201</v>
       </c>
     </row>
